--- a/9992.HK.xlsx
+++ b/9992.HK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A52F52-D0A7-4F75-9C2C-95F027B30A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396C5D8E-76D4-48C8-B7DF-B5CAB2ED9FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F40E76A4-D28F-40CA-8C98-C80E8AA59D98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{F40E76A4-D28F-40CA-8C98-C80E8AA59D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -247,7 +247,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -592,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7B432-3299-40A9-B3E5-24AFAEAB3303}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -713,11 +713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761F7240-9762-4830-AD68-8F02C4483690}">
   <dimension ref="A1:CC182"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B6"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3254,7 +3254,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="8" t="e">
-        <f t="shared" ref="K29:M29" si="14">+K6/J6-1</f>
+        <f t="shared" ref="K29:L29" si="14">+K6/J6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="8" t="e">
@@ -3348,7 +3348,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="7" t="e">
-        <f t="shared" ref="I30:M30" si="15">+I7/H7-1</f>
+        <f t="shared" ref="I30:L30" si="15">+I7/H7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="7">
@@ -3441,7 +3441,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" ref="C31:E31" si="16">+C9/C7</f>
+        <f t="shared" ref="C31:D31" si="16">+C9/C7</f>
         <v>0.64045924475918481</v>
       </c>
       <c r="D31" s="9" t="e">
@@ -3552,7 +3552,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" ref="C32:E32" si="18">+C14/C7</f>
+        <f t="shared" ref="C32:D32" si="18">+C14/C7</f>
         <v>0.24713882546325217</v>
       </c>
       <c r="D32" s="9" t="e">
@@ -3663,7 +3663,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="9">
-        <f t="shared" ref="C33:E33" si="20">+C19/C18</f>
+        <f t="shared" ref="C33:D33" si="20">+C19/C18</f>
         <v>0.21514801723815119</v>
       </c>
       <c r="D33" s="9" t="e">

--- a/9992.HK.xlsx
+++ b/9992.HK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396C5D8E-76D4-48C8-B7DF-B5CAB2ED9FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72AD97-6A50-4274-AA3F-811FFFE4BAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{F40E76A4-D28F-40CA-8C98-C80E8AA59D98}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{F40E76A4-D28F-40CA-8C98-C80E8AA59D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7B432-3299-40A9-B3E5-24AFAEAB3303}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>256.39999999999998</v>
+        <v>266.8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>340780.2144</v>
+        <v>354602.81280000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>327014.50339999999</v>
+        <v>340837.1018</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761F7240-9762-4830-AD68-8F02C4483690}">
   <dimension ref="A1:CC182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
